--- a/Excel Distribution Assignment/GDistribution.xlsx
+++ b/Excel Distribution Assignment/GDistribution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Stockton/Spring 2024/Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Stockton/Spring 2024/Stats/Stats Project One/Excel Distribution Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58499E38-2ED8-D34D-BEB4-7020453A6CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91644B39-022A-764D-B119-785E3CD88090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{421C5FF1-A379-654C-A108-B920ED39CFF7}"/>
   </bookViews>
@@ -1818,16 +1818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>557695</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>36811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>684696</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>111171</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18405</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F135D62-3566-F846-A971-F9D4343CED6C}">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="138" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
